--- a/UiPath Beginners Course/FirstRobot/Data Scraping/Barnes.xlsx
+++ b/UiPath Beginners Course/FirstRobot/Data Scraping/Barnes.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders Jensen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\UiPathLearning\UiPath Beginners Course\FirstRobot\Data Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A63B1A-FDEA-443B-8211-E7C01C73CF8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A774D9B-9F10-46EB-A589-F931E92E9074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="2856" windowWidth="13116" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39750" yWindow="1350" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Topics" sheetId="1" r:id="rId1"/>
+    <sheet name="Excel" sheetId="5" r:id="rId1"/>
+    <sheet name="Power Automate" sheetId="4" r:id="rId2"/>
+    <sheet name="UiPath" sheetId="3" r:id="rId3"/>
+    <sheet name="VB.NET" sheetId="2" r:id="rId4"/>
+    <sheet name="Topics" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="438">
   <si>
     <t>Topic</t>
   </si>
@@ -40,6 +44,1382 @@
   </si>
   <si>
     <t>Excel</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Learning Visual Basic .Net</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0596003862/ref=sr_1_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>von Jesse Liberty</t>
+  </si>
+  <si>
+    <t>Visual Basic .NET All-in-One Desk Ref for Dummies</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0764525794/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>von Richard Mansfield</t>
+  </si>
+  <si>
+    <t>37
+,
+53$</t>
+  </si>
+  <si>
+    <t>VB.Net: Learn Visual Basic .Net in 1 Day</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07XB88KBC/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>von Krishna Rungta</t>
+  </si>
+  <si>
+    <t>0
+,
+00$</t>
+  </si>
+  <si>
+    <t>VB.NET Language Pocket Reference: Syntax and Descriptions of the Visual Basic .NET Language (Pocket Reference (O'Reilly))</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0043EWV0G/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Teil von: Pocket Reference (O'Reilly)(34 Bücher)</t>
+  </si>
+  <si>
+    <t>6
+,
+99$</t>
+  </si>
+  <si>
+    <t>Advanced programming in VBA-Excel for beginners: With examples of DLL libraries and Add-Ins in Visual Basic .NET</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1796395609/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>von Dorian Oria</t>
+  </si>
+  <si>
+    <t>Learn Professional Programming in .Net Using C#, Visual Basic, and Asp.Net</t>
+  </si>
+  <si>
+    <t>/dp/1984501542/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>von Adalat Khan</t>
+  </si>
+  <si>
+    <t>32
+,
+77$</t>
+  </si>
+  <si>
+    <t>Subclassing and Hooking with Visual Basic: Harnessing the Full Power of VB/VB.NET</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B00X8MD8U6/ref=sr_1_7?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>von Stephen Teilhet</t>
+  </si>
+  <si>
+    <t>25
+,
+14$</t>
+  </si>
+  <si>
+    <t>Professional Design Patterns in VB .NET: Building Adaptable Applications (Expert's Voice)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1590592743/ref=sr_1_8?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>von Chaur Wu, Tom Fischer , et al.</t>
+  </si>
+  <si>
+    <t>Build Your Own ASP.Net 4 Website Using C# and VB</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0987090860/ref=sr_1_9?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>von Cristian Darie</t>
+  </si>
+  <si>
+    <t>Enterprise Development with Visual Studio .NET, UML, and MSF</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1590590422/ref=sr_1_10?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>von John Erik Hansen und Carsten Thomsen</t>
+  </si>
+  <si>
+    <t>27
+,
+35$</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07H6VJCWZ/ref=sr_1_11?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Beginning ASP.NET 4.5 in VB (Expert's Voice in .NET)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1430243295/ref=sr_1_12?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>von Matthew MacDonald</t>
+  </si>
+  <si>
+    <t>Professional ASP.NET 4.5 in C# and VB</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1118311825/ref=sr_1_13?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>von Jason N. Gaylord , Christian Wenz , et al.</t>
+  </si>
+  <si>
+    <t>Introduction to Visual Basic.NET 2008 Programming</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1942689306/ref=sr_1_14?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>von Prof Sham Tickoo Purdue Univ</t>
+  </si>
+  <si>
+    <t>Karl Moore's Visual Basic .NET: The Tutorials</t>
+  </si>
+  <si>
+    <t>/-/de/dp/159059021X/ref=sr_1_15?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>von Karl Moore</t>
+  </si>
+  <si>
+    <t>Beginning ASP.NET 4.5.1: in C# and VB (Wrox Programmer to Programmer)</t>
+  </si>
+  <si>
+    <t>/dp/111884677X/ref=sr_1_16?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>von Imar Spaanjaars</t>
+  </si>
+  <si>
+    <t>Learn Visual Basic .NET – Volume 2: Learn to develop Railway Ticket Reservation Project in VB.Net</t>
+  </si>
+  <si>
+    <t>/dp/B08L9NKBQL/ref=sr_1_17?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>von Ganesh Kumar</t>
+  </si>
+  <si>
+    <t>User Interfaces in VB .NET: Windows Forms and Custom Controls</t>
+  </si>
+  <si>
+    <t>/dp/1590590449/ref=sr_1_18?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>GDI+ Programming in C# and VB .NET</t>
+  </si>
+  <si>
+    <t>/-/de/dp/159059035X/ref=sr_1_19?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>von Nick Symmonds</t>
+  </si>
+  <si>
+    <t>VisualBasic .NET For Dummies</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0764508679/ref=sr_1_20?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>von Wallace Wang</t>
+  </si>
+  <si>
+    <t>Learn Visual Basic 2019 Edition: A Step-By-Step Programming Tutorial</t>
+  </si>
+  <si>
+    <t>/dp/1951077105/ref=sr_1_21?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>von Philip Conrod und Lou Tylee</t>
+  </si>
+  <si>
+    <t>Visual Basic 2015 in 24 Hours, Sams Teach Yourself</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0672337452/ref=sr_1_22?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>Teil von: Sams Teach Yourself(143 Bücher)</t>
+  </si>
+  <si>
+    <t>Visual Basic .NET MADE EASY: A Beginner's Guide to Easily Learn Visual Basic.NET (Programming Ebooks Book 46)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B096W4HDWR/ref=sr_1_23?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Buch 46 von {seriestotal} in Programming Ebooks</t>
+  </si>
+  <si>
+    <t>Learn Visual Basic .Net Programming: A Practical Approach</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07MYMDR5X/ref=sr_1_24?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>Visual Basic and Databases 2019 Edition: A Step-By-Step Database Programming Tutorial</t>
+  </si>
+  <si>
+    <t>/dp/1951077121/ref=sr_1_25?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Basic 2013 Step by Step (Step by Step Developer)</t>
+  </si>
+  <si>
+    <t>/dp/B00JDMPNWG/ref=sr_1_26?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>Teil von: Step by Step Developer(20 Bücher)</t>
+  </si>
+  <si>
+    <t>19
+,
+79$</t>
+  </si>
+  <si>
+    <t>SQL Server Database Programming with Visual Basic.NET: Concepts, Designs and Implementations</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B089LYZ88G/ref=sr_1_27?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>von Ying Bai</t>
+  </si>
+  <si>
+    <t>68
+,
+00$</t>
+  </si>
+  <si>
+    <t>LINQ For Dummies</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0470277947/ref=sr_1_28?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>von John Paul Mueller</t>
+  </si>
+  <si>
+    <t>26
+,
+96$</t>
+  </si>
+  <si>
+    <t>Sams Teach Yourself Visual Basic.Net in 21 Days</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0672320665/ref=sr_1_29?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>von Duncan MacKenzie und Kent Sharkey</t>
+  </si>
+  <si>
+    <t>49
+,
+99$</t>
+  </si>
+  <si>
+    <t>The Complete Software Developer's Career Guide: How to Learn Programming Languages Quickly, Ace Your Programming Interview, and Land Your Software Developer Dream Job</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B078J67VNF/ref=sr_1_30?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>von John Sonmez und Simple Programmer, LLC</t>
+  </si>
+  <si>
+    <t>Beginning VB 2005 Databases: From Novice to Professional (Beginning: From Novice to Professional)</t>
+  </si>
+  <si>
+    <t>/dp/1590598105/ref=sr_1_31?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>von Jacob Hammer Pedersen, Ranga Raghuram, et al.</t>
+  </si>
+  <si>
+    <t>39
+,
+97$</t>
+  </si>
+  <si>
+    <t>A Law and Economics Approach to Litigation Costs: The Proportionality Test for E-Discovery Law (A Scholarly Monograph)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B087NXPFHD/ref=sr_1_32?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>von Russell Hasan</t>
+  </si>
+  <si>
+    <t>Visual Basic in easy steps: Updated for Visual Basic 2019</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1840788720/ref=sr_1_33?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>von Mike McGrath</t>
+  </si>
+  <si>
+    <t>VISUAL BASIC .NET AND DATABASE: PRACTICAL TUTORIALS</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08MC57J86/ref=sr_1_34?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>von Vivian Siahaan und Rismon Hasiholan Sianipar</t>
+  </si>
+  <si>
+    <t>Practical Database Programming with Visual Basic.NET</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1118162056/ref=sr_1_35?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Working Effectively with Legacy Code</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0131177052/ref=sr_1_36?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Teil von: Robert C. Martin Series(13 Bücher)</t>
+  </si>
+  <si>
+    <t>Visual Studio 2019 Tricks and Techniques: A developer's guide to writing better code and maximizing productivity</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1800203527/ref=sr_1_37?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>von Paul Schroeder , Aaron Cure , et al.</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Basic 2015 for Windows, Web, Windows Store, and Database Applications: Comprehensive</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1285856899/ref=sr_1_38?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>von Corinne Hoisington</t>
+  </si>
+  <si>
+    <t>122
+,
+24$</t>
+  </si>
+  <si>
+    <t>Visual Basic.NET: An Introduction to Computer Programming</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1524937223/ref=sr_1_39?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>von Victoria Hong und Lawrence Fischer</t>
+  </si>
+  <si>
+    <t>Programming .NET Components, 2nd Edition</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0596102070/ref=sr_1_40?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>von Juval Lowy</t>
+  </si>
+  <si>
+    <t>Murach's ASP.NET 4.5 Web Programming with VB 2012 (Training &amp; Reference)</t>
+  </si>
+  <si>
+    <t>/dp/1890774766/ref=sr_1_41?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>von Mary Delamater und Anne Boehm</t>
+  </si>
+  <si>
+    <t>Professional Visual Basic 2012 and .NET 4.5 Programming</t>
+  </si>
+  <si>
+    <t>/-/de/dp/111831445X/ref=sr_1_42?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>von Bill Sheldon , Billy Hollis, et al.</t>
+  </si>
+  <si>
+    <t>81
+,
+27$</t>
+  </si>
+  <si>
+    <t>Beginning Visual Basic 2005 Express Edition: From Novice to Professional (Beginning: From Novice to Professional)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1590596226/ref=sr_1_43?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>von Heather Wright</t>
+  </si>
+  <si>
+    <t>29
+,
+54$</t>
+  </si>
+  <si>
+    <t>Excel VBA Programming For Dummies 5th Edition</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1119518172/ref=sr_1_44?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>von Michael Alexander</t>
+  </si>
+  <si>
+    <t>Comprehensive VB .NET Debugging</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1590590503/ref=sr_1_45?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>von Mark Pearce</t>
+  </si>
+  <si>
+    <t>49
+,
+05$</t>
+  </si>
+  <si>
+    <t>Learn Excel® VBA in 24 Hours: A quick reference for beginners</t>
+  </si>
+  <si>
+    <t>/dp/B01LX6GEVL/ref=sr_1_46?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>von Liaw HockSang</t>
+  </si>
+  <si>
+    <t>Murach's Visual Basic 2015</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1890774987/ref=sr_1_47?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>von Anne Boehm und Mike Murach</t>
+  </si>
+  <si>
+    <t>Beginning ASP.NET 4.5: in C# and VB</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B00A3IZ8G0/ref=sr_1_48?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=VB.NET&amp;qid=1629012189&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>36
+,
+00$</t>
+  </si>
+  <si>
+    <t>Ähnliche Suchbegriffe</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation using UiPath StudioX: A Citizen Developer’s Guide to Hyperautomation</t>
+  </si>
+  <si>
+    <t>/dp/1484267931/ref=sr_1_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>von Adeel Javed , Anum Sundrani , et al.</t>
+  </si>
+  <si>
+    <t>Learning Robotic Process Automation: Create Software robots and automate business processes with the leading RPA tool – UiPath</t>
+  </si>
+  <si>
+    <t>/-/de/dp/178847094X/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>von Alok Mani Tripathi</t>
+  </si>
+  <si>
+    <t>UiPath Associate Certification Guide: The go-to guide to acing your Associate certification exam with the help of mock tests and quizzes</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1801072736/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>von Niyaz Ahmed, Lahiru Fernando , et al.</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation Projects: Build real-world RPA solutions using UiPath and Automation Anywhere</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1839217359/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>von Nandan Mullakara und Arun Kumar Asokan</t>
+  </si>
+  <si>
+    <t>Crisper Learning: for UiPath</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07CRVGN15/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>von Vaibhav Jain</t>
+  </si>
+  <si>
+    <t>9
+,
+99$</t>
+  </si>
+  <si>
+    <t>UiPath Interview Question &amp; Answer</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B093Z2LKT4/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>von Careerplus Academy</t>
+  </si>
+  <si>
+    <t>UiPath Certified Advanced RPA Developer: UiARD - Exam Prep</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08CX7J2ZC/ref=sr_1_7?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>von VB Dev</t>
+  </si>
+  <si>
+    <t>UiPath RPA开发 入门、实战与进阶（初学者的UiPath实战宝典，全面、详细讲解UiPath的功能组件、企业级框架和大型项目实践） (Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B09BCJY77K/ref=sr_1_8?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von 邵京京, 白晶茹, et al.</t>
+  </si>
+  <si>
+    <t>UiPath: kurikaeshi roboto wo tukurou UiPath for PDF to Excel (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B083S9BVDN/ref=sr_1_9?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von haru naka</t>
+  </si>
+  <si>
+    <t>5
+,
+53$</t>
+  </si>
+  <si>
+    <t>UiPath Studio development portal(Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/7115524432/ref=sr_1_10?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von SHAO RUI ZHAO</t>
+  </si>
+  <si>
+    <t>For UiPath Activitys Dictionary: masutashiyou (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0839PGGJ2/ref=sr_1_11?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von HARU NAKA</t>
+  </si>
+  <si>
+    <t>UiPath for Accounting Robot first step (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B083RLH26L/ref=sr_1_12?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>UiPath Orchestrator: RPA Na Prática (Portuguese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B089G72YPQ/ref=sr_1_13?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Portugiesisch Ausgabe
+von Othon R S Neto</t>
+  </si>
+  <si>
+    <t>基礎がよくわかる！ ゼロからのRPA UiPath 超実践テクニック (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/dp/B08CRPGWFD/ref=sr_1_14?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von 吉田 将明</t>
+  </si>
+  <si>
+    <t>25
+,
+46$</t>
+  </si>
+  <si>
+    <t>Cloudrail,UiPath &amp; Materialize: Interview QA</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0818SS2JL/ref=sr_1_15?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>von Linux Kuriosity</t>
+  </si>
+  <si>
+    <t>81 PERGUNTAS E RESPOSTAS SOBRE O UIPATH: Seja um desenvolvedor UIPath (Portuguese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08MJ1DMGN/ref=sr_1_16?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Portugiesisch Ausgabe
+von VALE TECH</t>
+  </si>
+  <si>
+    <t>The Robotic Process Automation Handbook: A Guide to Implementing RPA Systems</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1484257286/ref=sr_1_17?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>von Tom Taulli</t>
+  </si>
+  <si>
+    <t>UiPath Getting Started Book (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B09C8RX8C2/ref=sr_1_18?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von Tetsuro Kishi</t>
+  </si>
+  <si>
+    <t>100+ Interview Q &amp; A in Robotic Process Automation ( RPA): 99% Frequently Asked Interview Q &amp; A (Interview Q &amp; A Series Book 18)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07Y2K28QZ/ref=sr_1_19?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>von Bandana Ojha</t>
+  </si>
+  <si>
+    <t>Workflow Automation with Microsoft Power Automate: Achieve digital transformation through business automation with minimal coding</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1839213795/ref=sr_1_20?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>von Aaron Guilmette</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation: Guide To Building Software Robots, Automate Repetitive Tasks &amp; Become An RPA Consultant</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1983036838/ref=sr_1_21?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>von Richard Murdoch</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation with Automation Anywhere: Techniques to fuel business productivity and intelligent automation using RPA</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08JH7VX2Y/ref=sr_1_22?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>von Husan Mahey</t>
+  </si>
+  <si>
+    <t>Buch in englischer Sprache: Artificial Intelligence: 101 Things You Must Know Today About Our Future</t>
+  </si>
+  <si>
+    <t>/dp/1982048808/ref=sr_1_23?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>von Lasse Rouhiainen</t>
+  </si>
+  <si>
+    <t>The Google Infused Classroom: A Guidebook to Making Thinking Visible and Amplifying Student Voice</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1733646809/ref=sr_1_24?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>von Holly Clark und Tanya Avrith</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation Rpa A Complete Guide - 2020 Edition</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07YKKYC4B/ref=sr_1_25?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>von Gerardus Blokdyk</t>
+  </si>
+  <si>
+    <t>57
+,
+99$</t>
+  </si>
+  <si>
+    <t>Getting started with RPA using Automation Anywhere: Automate your day-to-day Business Processes using Automation Anywhere (English Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/9389898285/ref=sr_1_26?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>von Vaibhav Srivastava</t>
+  </si>
+  <si>
+    <t>35
+,
+93$</t>
+  </si>
+  <si>
+    <t>Teach you to play RPA - Based on UIPATH and Blue Prism (gains from blog views)(Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/712139636X/ref=sr_1_27?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von WANG XU BIN</t>
+  </si>
+  <si>
+    <t>Getting started with RPA (Process Automation Robot)-teach you how to use UiPath to automate your work (full color) (Bowen Viewpoint)(Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/7121399954/ref=sr_1_28?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von CHAI JUAN WEI</t>
+  </si>
+  <si>
+    <t>RPA财务机器人开发教程――基于UiPath</t>
+  </si>
+  <si>
+    <t>/-/de/dp/7121363070/ref=sr_1_29?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von 程平</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation with Blue Prism Quick Start Guide: Create software robots and automate business processes</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1789610443/ref=sr_1_30?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>von Lim Mei Ying</t>
+  </si>
+  <si>
+    <t>[Recommended by the Accounting Experts Committee] RPA Financial Robot Development Tutorial: Based on UiPath (2nd Edition Financial Robot Course Book)(Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/7121409348/ref=sr_1_31?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von CHENG PING</t>
+  </si>
+  <si>
+    <t>RPA study guide: Use UiPath to build software robots and automate business processes(Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/7512432712/ref=sr_1_32?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von CHEN JIA FU YI [ YING ] Alok , Mani , Tripathi , LI YONG LUN</t>
+  </si>
+  <si>
+    <t>The Future of Intelligent Automation: How AI and Robotic Process Automation can improve your business processes</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B087VY11QM/ref=sr_1_33?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>von Elijah Falode</t>
+  </si>
+  <si>
+    <t>RPAツールで業務改善! UiPath入門 基本編</t>
+  </si>
+  <si>
+    <t>/-/de/dp/4798057126/ref=sr_1_34?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanisch Ausgabe
+</t>
+  </si>
+  <si>
+    <t>40
+,
+26$</t>
+  </si>
+  <si>
+    <t>できるUiPath 実践RPA (できるシリーズ)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/4295005673/ref=sr_1_35?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>52
+,
+41$</t>
+  </si>
+  <si>
+    <t>RPA智能机器人：实施方法和行业解决方案（小四科技CEO、软通动力CTO、容智信息CEO等专家撰写，UiPath、AA、来也、艺赛旗、RPA中国等企业高管推荐） (Chinese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08D6H41WC/ref=sr_1_36?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Chinesisch Ausgabe
+von 朱龙春</t>
+  </si>
+  <si>
+    <t>Blue Prism MasterClass: Developer &amp; Professional Developer</t>
+  </si>
+  <si>
+    <t>/dp/9353917697/ref=sr_1_37?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>von MR PRASANNA KUMAR BALLEPALLI</t>
+  </si>
+  <si>
+    <t>Guide To Building A Scalable RPA CoE</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07N5FG8Q7/ref=sr_1_38?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>von Rinat Malik</t>
+  </si>
+  <si>
+    <t>THE COMPLETE GUIDE TO PROGRAMMING A ROBOTICS FOR DUMMIES : Build, Analysis, Control, Applications, Autonomous, Defending Human Expertise, Machine Learning, And Virtual</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08XTKCRGN/ref=sr_1_39?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>von Biden Dum PH.D</t>
+  </si>
+  <si>
+    <t>BLUE PRISM MASTERCLASS-II: BUSINESS SAVVY ARCHITECTS</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08FRMS4SC/ref=sr_1_40?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>Buch 2 von {seriestotal} in BLUE PRISM MASTERCLASS</t>
+  </si>
+  <si>
+    <t>RPA for everyone: Robotic Process Automation, this famous unknown</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08JKWYHTW/ref=sr_1_41?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>von Vincenzo Marchica</t>
+  </si>
+  <si>
+    <t>CaseStudy de PowerAutomateDesktop HowToPad (ArakawaBooks) (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B095LLTM85/ref=sr_1_42?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von ArakawaBooks</t>
+  </si>
+  <si>
+    <t>RPA TOOLS - MARKET DEMAND TREND: FULL REPORT PACKAGE</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07QGL3CXB/ref=sr_1_43?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>von CURIOSITY PUBLISHERS</t>
+  </si>
+  <si>
+    <t>jikan to okane wo bakukasegi a-rupi-e- tetteikatsuyouhou (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07L267T3Q/ref=sr_1_44?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von Fukumariko</t>
+  </si>
+  <si>
+    <t>Künstliche Intelligenz und deren Entwicklung: Ein kleiner Ausflug in die KI (German Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07ZN1M35Z/ref=sr_1_45?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>Deutsch Ausgabe
+von Paul Christoph Feichtinger</t>
+  </si>
+  <si>
+    <t>yuuaipasu robotto ashisutanto: masutashiyou (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08HM8MS8H/ref=sr_1_46?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>Automation Anywhere command dictionary (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08KG5P794/ref=sr_1_47?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>Japanisch Ausgabe
+von Haru Naka und HARU NAKA</t>
+  </si>
+  <si>
+    <t>Introduction of Automation Anywhere (Japanese Edition)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08K7SG5KB/ref=sr_1_48?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=UiPath&amp;qid=1629012235&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>Excel 2021: The Key To Becoming an Excel Master in Less Than 30 Minutes a Day | A Complete Step-by-Step Guide from Beginner to Expert Thanks to Unique Smart Method + Practical Examples</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0966TS3B2/ref=sr_1_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>von Eugene Gates</t>
+  </si>
+  <si>
+    <t>Excel 2019 Bible</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1119514789/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Teil von: Bible(22 Bücher)</t>
+  </si>
+  <si>
+    <t>Learn Excel 365 Expert Skills with The Smart Method: Fifth Edition: updated for the Jan 2021 Semi-Annual version 2008</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1909253480/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>von Mike Smart</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 2016 Step by Step</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0735698805/ref=sr_1_7?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Teil von: Step by Step(20 Bücher)</t>
+  </si>
+  <si>
+    <t>Data Visualization with Excel Dashboards and Reports</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1119698723/ref=sr_1_8?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>von Dick Kusleika</t>
+  </si>
+  <si>
+    <t>EXCEL 2021 FOR BEGINNERS: THE COMPLETE DUMMY TO EXPERT PRACTICAL GUIDE WITH EXAMPLES THAT TEACHES EVERYTHING YOU NEED TO KNOW ABOUT MICROSOFT EXCEL ... (EXCEL DUMMIES TO MASTER COURSE 2021)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0939XCLGM/ref=sr_1_9?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>Buch 1 von {seriestotal} in EXCEL DUMMIES TO MASTER COURSE 2021</t>
+  </si>
+  <si>
+    <t>Excel 2021: A Complete Guide for Beginners to Learn about the Features, Functions, Tools, and Formulas of Microsoft Excel</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B097TYJW6N/ref=sr_1_10?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>von Noah Smith</t>
+  </si>
+  <si>
+    <t>EXCEL 2021: A Complete Step-by-Step Guide from Beginner to Expert | Learn to Use Excel with All the Functions Most Required by Companies and Fundamental for Individuals, in Less Than 20 Minutes a Day.</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0997RSB45/ref=sr_1_11?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>von Patrick Waters</t>
+  </si>
+  <si>
+    <t>Excel 2019 Training DVD by Simon Sez IT: Excel Tutorial For Absolute Beginners to Advanced Users – Excel Course Including Exercise Files</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B07Q6ZCY4X/ref=sr_1_12?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>von Simon Sez IT</t>
+  </si>
+  <si>
+    <t>Excel 2021: A Complete Guide About Excel 2021 With All-in-One Approach For Beginners</t>
+  </si>
+  <si>
+    <t>/dp/B097RRRZXZ/ref=sr_1_13?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>von Baxter Floyd</t>
+  </si>
+  <si>
+    <t>Excel 2016 Bible</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1119067510/ref=sr_1_15?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Learn Excel 365 Essential Skills with The Smart Method: Fifth Edition: updated for the Jan 2021 Semi-Annual version 2008</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1909253472/ref=sr_1_16?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 2019 Data Analysis and Business Modeling (Business Skills)</t>
+  </si>
+  <si>
+    <t>/dp/1509305882/ref=sr_1_17?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Teil von: Business Skills(17 Bücher)</t>
+  </si>
+  <si>
+    <t>19
+,
+25$</t>
+  </si>
+  <si>
+    <t>Excel 2021: A Step-by-Step Guide to Learn the Basics of Excel Software Through a Smart Approach</t>
+  </si>
+  <si>
+    <t>/dp/B099XCSNHG/ref=sr_1_18?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>von Albert Blake</t>
+  </si>
+  <si>
+    <t>Excel 2021: A Step-By-Step Guide to Learning the Basics of Excel and Easy Excel Tips for Beginners</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B09774CD2K/ref=sr_1_19?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>von Albion Jensen</t>
+  </si>
+  <si>
+    <t>Seachem Flourish Excel Bioavailable Carbon – Bio-Kohlenstoffquelle für Wasserpflanzen, 2 l</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B00243VMGC/ref=sr_1_20?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>OfficeSuite Home &amp; Business 2021 | Lifetime License | Compatible with Word®, Excel®, PowerPoint® &amp; PDF for Windows</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B08L3GC72Y/ref=sr_1_21?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>von MobiSystems</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 2019 VBA and Macros (Business Skills)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1509306110/ref=sr_1_22?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>Excel 2019 For Dummies</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1119513324/ref=sr_1_23?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>von Greg Harvey</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 2019 Step by Step</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1509307672/ref=sr_1_24?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>31
+,
+88$</t>
+  </si>
+  <si>
+    <t>EXCEL 2021: The Step-By-Step Easy Excel 2021 Bible For Beginners To Master The Fundamentals Of Excel &amp; Unlock Its Full Range Of Functions &amp; Formulas to Make the Most Out of It and Become an Expert</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B091MTRR2J/ref=sr_1_25?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>von Mark Page T.Hopper</t>
+  </si>
+  <si>
+    <t>Excel - Day One - The Basics and Beyond</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B00IG1DPZW/ref=sr_1_26?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>Advancing into Analytics: From Excel to Python and R</t>
+  </si>
+  <si>
+    <t>/-/de/dp/149209434X/ref=sr_1_27?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>von George Mount</t>
+  </si>
+  <si>
+    <t>Excel Formulas and Functions 2020: The Step by Step Excel Guide with Examples on How to Create Powerful Formulas (Excel Academy Book 1)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B088P7QQRZ/ref=sr_1_28?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>Buch 1 von {seriestotal} in Excel Academy</t>
+  </si>
+  <si>
+    <t>Mastering Excel 2019: An All-in-One Tutorial Resource</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1916211380/ref=sr_1_29?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>von Nathan George</t>
+  </si>
+  <si>
+    <t>Daily Excel Tips &amp; Tricks</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B00ONFRPLK/ref=sr_1_30?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>19. Oktober 2014</t>
+  </si>
+  <si>
+    <t>Excel 2021: The Complete User Guide from Beginner to Expert with Useful Tips &amp; Tricks to Master the Excel 2021 New Features for Easy Navigation</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B099XDJ5QJ/ref=sr_1_31?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>von Albert Chipman</t>
+  </si>
+  <si>
+    <t>Excel 2019 Power Programming with VBA</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1119514924/ref=sr_1_32?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>von Michael Alexander und Dick Kusleika</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 2019 Pivot Table Data Crunching (Business Skills)</t>
+  </si>
+  <si>
+    <t>/dp/1509307249/ref=sr_1_33?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>Excel Saga: Complete Series</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B0049TC8CG/ref=sr_1_34?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>GO! with Microsoft Excel 2016 Comprehensive (GO! for Office 2016 Series)</t>
+  </si>
+  <si>
+    <t>/dp/0134443926/ref=sr_1_35?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>von Shelley Gaskin und Alicia Vargas</t>
+  </si>
+  <si>
+    <t>11
+,
+99$</t>
+  </si>
+  <si>
+    <t>Excel for Beginners (Excel Essentials)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/197648071X/ref=sr_1_36?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Buch 1 von {seriestotal} in Excel Essentials</t>
+  </si>
+  <si>
+    <t>EXCEL PIVOT TABLES FOR BEGINNERS PART 1: A Step by Step Course on How To Easily Create Pivot Tables in Excel and Extract Insights from Massive Databases (Excel For Beginners)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B09BP253WX/ref=sr_1_37?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>Teil von: Excel For Beginners(3 Bücher)</t>
+  </si>
+  <si>
+    <t>Essentials of Modern Business Statistics with Microsoft Excel (MindTap Course List)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0357131622/ref=sr_1_38?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>Teil von: MindTap Course List(20 Bücher)</t>
+  </si>
+  <si>
+    <t>31
+,
+51$</t>
+  </si>
+  <si>
+    <t>Excel 2016 All-in-One for Dummies, Buch, eventuell nicht in deutscher Sprache</t>
+  </si>
+  <si>
+    <t>/-/de/dp/111907715X/ref=sr_1_39?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>Learn Microsoft Excel 2016 Interactive Training CD Course</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B073VZW4DG/ref=sr_1_40?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>von Amazing eLearning, LLC</t>
+  </si>
+  <si>
+    <t>Financial Modeling in Excel For Dummies, Taschenbuch, englische Ausgabe</t>
+  </si>
+  <si>
+    <t>/dp/1119357543/ref=sr_1_41?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>Teil von: For Dummies (Language &amp; Literature)(20 Bücher)</t>
+  </si>
+  <si>
+    <t>Excel 2019 for Business Statistics: A Guide to Solving Practical Problems (Excel for Statistics)</t>
+  </si>
+  <si>
+    <t>/-/de/dp/3030392600/ref=sr_1_42?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>Teil von: Excel for Statistics(37 Bücher)</t>
+  </si>
+  <si>
+    <t>68
+,
+41$</t>
+  </si>
+  <si>
+    <t>Python for Excel: A Modern Environment for Automation and Data Analysis</t>
+  </si>
+  <si>
+    <t>/-/de/dp/1492081000/ref=sr_1_43?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>von Felix Zumstein</t>
+  </si>
+  <si>
+    <t>Microsoft Office 365 Teams: Simplify Collaboration within Companies</t>
+  </si>
+  <si>
+    <t>/dp/B07SPQYG8B/ref=sr_1_44?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>Excel Programming: The Ultimate Collection to Learn Excel VBA &amp; Excel Macros Step by Step</t>
+  </si>
+  <si>
+    <t>/-/de/dp/B082W4N9PW/ref=sr_1_45?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>von David A. Williams</t>
+  </si>
+  <si>
+    <t>Statistics for Managers Using Microsoft Excel</t>
+  </si>
+  <si>
+    <t>/-/de/dp/0134173058/ref=sr_1_46?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>von David Levine, David Stephan, et al.</t>
+  </si>
+  <si>
+    <t>23
+,
+86$</t>
+  </si>
+  <si>
+    <t>Excel Formulas and Functions: Step-By-Step Guide with Examples</t>
+  </si>
+  <si>
+    <t>/dp/B07C11QRMX/ref=sr_1_47?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>von Adam Ramirez und Trevor Clinger</t>
+  </si>
+  <si>
+    <t>Learn Data Mining Through Excel: A Step-by-Step Approach for Understanding Machine Learning Methods</t>
+  </si>
+  <si>
+    <t>/dp/1484259815/ref=sr_1_48?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=Excel&amp;qid=1629012316&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>von Hong Zhou</t>
   </si>
 </sst>
 </file>
@@ -75,12 +1455,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,12 +1740,4820 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3CCCBA-C7AE-40E3-95ED-C7CD370856E3}">
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>325</v>
+      </c>
+      <c r="B105" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" t="s">
+        <v>330</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" t="s">
+        <v>339</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>340</v>
+      </c>
+      <c r="B110" t="s">
+        <v>341</v>
+      </c>
+      <c r="C110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" t="s">
+        <v>343</v>
+      </c>
+      <c r="C111" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>344</v>
+      </c>
+      <c r="B112" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>348</v>
+      </c>
+      <c r="B113" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" t="s">
+        <v>350</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C114" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>354</v>
+      </c>
+      <c r="B115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" t="s">
+        <v>321</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B122" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>375</v>
+      </c>
+      <c r="B123" t="s">
+        <v>376</v>
+      </c>
+      <c r="C123" t="s">
+        <v>377</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>378</v>
+      </c>
+      <c r="B124" t="s">
+        <v>379</v>
+      </c>
+      <c r="C124" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>381</v>
+      </c>
+      <c r="B125" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>384</v>
+      </c>
+      <c r="B126" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" t="s">
+        <v>386</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>387</v>
+      </c>
+      <c r="B127" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>392</v>
+      </c>
+      <c r="B129" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>394</v>
+      </c>
+      <c r="B130" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" t="s">
+        <v>396</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>398</v>
+      </c>
+      <c r="B131" t="s">
+        <v>399</v>
+      </c>
+      <c r="C131" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" t="s">
+        <v>402</v>
+      </c>
+      <c r="C132" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>404</v>
+      </c>
+      <c r="B133" t="s">
+        <v>405</v>
+      </c>
+      <c r="C133" t="s">
+        <v>406</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>408</v>
+      </c>
+      <c r="B134" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" t="s">
+        <v>411</v>
+      </c>
+      <c r="C135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>413</v>
+      </c>
+      <c r="B136" t="s">
+        <v>414</v>
+      </c>
+      <c r="C136" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>416</v>
+      </c>
+      <c r="B137" t="s">
+        <v>417</v>
+      </c>
+      <c r="C137" t="s">
+        <v>418</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>420</v>
+      </c>
+      <c r="B138" t="s">
+        <v>421</v>
+      </c>
+      <c r="C138" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>423</v>
+      </c>
+      <c r="B139" t="s">
+        <v>424</v>
+      </c>
+      <c r="C139">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>425</v>
+      </c>
+      <c r="B140" t="s">
+        <v>426</v>
+      </c>
+      <c r="C140" t="s">
+        <v>427</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>428</v>
+      </c>
+      <c r="B141" t="s">
+        <v>429</v>
+      </c>
+      <c r="C141" t="s">
+        <v>430</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>432</v>
+      </c>
+      <c r="B142" t="s">
+        <v>433</v>
+      </c>
+      <c r="C142" t="s">
+        <v>434</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>435</v>
+      </c>
+      <c r="B143" t="s">
+        <v>436</v>
+      </c>
+      <c r="C143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE810DB-9930-434C-B901-087A5A6F2094}">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18711F53-C6AE-46CE-9AB7-ECCA56C5E26E}">
+  <dimension ref="A1:D98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9794394-0A2F-43FB-AFA9-1E64E23C9CE7}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
